--- a/Consolidated_Taxonomy_July_18.xlsx
+++ b/Consolidated_Taxonomy_July_18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nwmissouri-my.sharepoint.com/personal/s555173_nwmissouri_edu/Documents/Desktop/GenerativeAI/GenerativeAI_ResearchPaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="291" documentId="11_9DA6673A6612CF9D237319A9E22F3A2AF5033A36" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F2907D1-83E3-42E7-A422-D6956667E58B}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="11_9DA6673A6612CF9D237319A9E22F3A2AF5033A36" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6913A94A-8A1C-498F-8546-D73AC88CE9AD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,13 +19,13 @@
     <sheet name="All responses" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'All responses'!$A$1:$Q$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'All responses'!$A$1:$Q$123</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
-    <pivotCache cacheId="6" r:id="rId6"/>
-    <pivotCache cacheId="7" r:id="rId7"/>
+    <pivotCache cacheId="9" r:id="rId5"/>
+    <pivotCache cacheId="10" r:id="rId6"/>
+    <pivotCache cacheId="11" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -5533,10 +5533,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Adapa,Pydi Venkata Satya Ramesh" refreshedDate="45095.540404976855" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="130" xr:uid="{7A8F7D2C-0E2A-4EB4-BA4A-BB35A5DC9AEB}">
   <cacheSource type="worksheet">
@@ -13374,7 +13370,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{339FCC3A-C102-4980-81EB-7ACAC3BFA8A9}" name="PivotTable8" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{339FCC3A-C102-4980-81EB-7ACAC3BFA8A9}" name="PivotTable8" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -13449,397 +13445,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{86C7D03F-9067-489E-89B3-C60B96FA9D0F}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B57" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="123">
-        <item x="55"/>
-        <item x="113"/>
-        <item x="96"/>
-        <item x="78"/>
-        <item x="62"/>
-        <item x="98"/>
-        <item x="95"/>
-        <item x="82"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="114"/>
-        <item x="51"/>
-        <item x="64"/>
-        <item x="100"/>
-        <item x="7"/>
-        <item x="36"/>
-        <item x="77"/>
-        <item x="47"/>
-        <item x="52"/>
-        <item x="0"/>
-        <item x="99"/>
-        <item x="88"/>
-        <item x="54"/>
-        <item x="69"/>
-        <item x="1"/>
-        <item x="111"/>
-        <item x="8"/>
-        <item x="29"/>
-        <item x="28"/>
-        <item x="9"/>
-        <item x="103"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="48"/>
-        <item x="17"/>
-        <item x="81"/>
-        <item x="65"/>
-        <item x="86"/>
-        <item x="49"/>
-        <item x="46"/>
-        <item x="44"/>
-        <item x="25"/>
-        <item x="90"/>
-        <item x="40"/>
-        <item x="42"/>
-        <item x="94"/>
-        <item x="23"/>
-        <item x="121"/>
-        <item x="13"/>
-        <item x="37"/>
-        <item x="34"/>
-        <item x="20"/>
-        <item x="97"/>
-        <item x="14"/>
-        <item x="92"/>
-        <item x="101"/>
-        <item x="93"/>
-        <item x="112"/>
-        <item x="26"/>
-        <item x="15"/>
-        <item x="105"/>
-        <item x="45"/>
-        <item x="87"/>
-        <item x="19"/>
-        <item x="107"/>
-        <item x="10"/>
-        <item x="104"/>
-        <item x="109"/>
-        <item x="73"/>
-        <item x="39"/>
-        <item x="118"/>
-        <item x="66"/>
-        <item x="85"/>
-        <item x="61"/>
-        <item x="11"/>
-        <item x="79"/>
-        <item x="110"/>
-        <item x="70"/>
-        <item x="38"/>
-        <item x="30"/>
-        <item x="43"/>
-        <item x="71"/>
-        <item x="74"/>
-        <item x="76"/>
-        <item x="108"/>
-        <item x="80"/>
-        <item x="4"/>
-        <item x="67"/>
-        <item x="84"/>
-        <item x="59"/>
-        <item x="102"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="75"/>
-        <item x="83"/>
-        <item x="24"/>
-        <item x="116"/>
-        <item x="27"/>
-        <item x="115"/>
-        <item x="58"/>
-        <item x="33"/>
-        <item x="18"/>
-        <item x="119"/>
-        <item x="57"/>
-        <item x="12"/>
-        <item x="89"/>
-        <item x="50"/>
-        <item x="106"/>
-        <item x="32"/>
-        <item x="31"/>
-        <item x="63"/>
-        <item x="68"/>
-        <item x="120"/>
-        <item x="53"/>
-        <item x="60"/>
-        <item x="91"/>
-        <item x="117"/>
-        <item x="22"/>
-        <item x="56"/>
-        <item x="41"/>
-        <item x="72"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="54">
-        <item x="44"/>
-        <item x="40"/>
-        <item x="17"/>
-        <item x="51"/>
-        <item x="39"/>
-        <item x="36"/>
-        <item x="24"/>
-        <item x="7"/>
-        <item x="16"/>
-        <item x="48"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="23"/>
-        <item x="5"/>
-        <item x="34"/>
-        <item x="42"/>
-        <item x="29"/>
-        <item x="33"/>
-        <item x="14"/>
-        <item x="32"/>
-        <item x="31"/>
-        <item x="50"/>
-        <item x="30"/>
-        <item x="26"/>
-        <item x="35"/>
-        <item x="18"/>
-        <item x="27"/>
-        <item x="9"/>
-        <item x="12"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="22"/>
-        <item x="41"/>
-        <item x="52"/>
-        <item x="15"/>
-        <item x="25"/>
-        <item x="6"/>
-        <item x="28"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="38"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="21"/>
-        <item x="10"/>
-        <item x="13"/>
-        <item x="43"/>
-        <item x="49"/>
-        <item x="45"/>
-        <item x="37"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="54">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Architecture type" fld="10" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{09F89EC9-B0C3-4B41-938E-709B241A828E}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{09F89EC9-B0C3-4B41-938E-709B241A828E}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D18:D306" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -15030,8 +14636,398 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{86C7D03F-9067-489E-89B3-C60B96FA9D0F}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B57" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="123">
+        <item x="55"/>
+        <item x="113"/>
+        <item x="96"/>
+        <item x="78"/>
+        <item x="62"/>
+        <item x="98"/>
+        <item x="95"/>
+        <item x="82"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="114"/>
+        <item x="51"/>
+        <item x="64"/>
+        <item x="100"/>
+        <item x="7"/>
+        <item x="36"/>
+        <item x="77"/>
+        <item x="47"/>
+        <item x="52"/>
+        <item x="0"/>
+        <item x="99"/>
+        <item x="88"/>
+        <item x="54"/>
+        <item x="69"/>
+        <item x="1"/>
+        <item x="111"/>
+        <item x="8"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="9"/>
+        <item x="103"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="48"/>
+        <item x="17"/>
+        <item x="81"/>
+        <item x="65"/>
+        <item x="86"/>
+        <item x="49"/>
+        <item x="46"/>
+        <item x="44"/>
+        <item x="25"/>
+        <item x="90"/>
+        <item x="40"/>
+        <item x="42"/>
+        <item x="94"/>
+        <item x="23"/>
+        <item x="121"/>
+        <item x="13"/>
+        <item x="37"/>
+        <item x="34"/>
+        <item x="20"/>
+        <item x="97"/>
+        <item x="14"/>
+        <item x="92"/>
+        <item x="101"/>
+        <item x="93"/>
+        <item x="112"/>
+        <item x="26"/>
+        <item x="15"/>
+        <item x="105"/>
+        <item x="45"/>
+        <item x="87"/>
+        <item x="19"/>
+        <item x="107"/>
+        <item x="10"/>
+        <item x="104"/>
+        <item x="109"/>
+        <item x="73"/>
+        <item x="39"/>
+        <item x="118"/>
+        <item x="66"/>
+        <item x="85"/>
+        <item x="61"/>
+        <item x="11"/>
+        <item x="79"/>
+        <item x="110"/>
+        <item x="70"/>
+        <item x="38"/>
+        <item x="30"/>
+        <item x="43"/>
+        <item x="71"/>
+        <item x="74"/>
+        <item x="76"/>
+        <item x="108"/>
+        <item x="80"/>
+        <item x="4"/>
+        <item x="67"/>
+        <item x="84"/>
+        <item x="59"/>
+        <item x="102"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="75"/>
+        <item x="83"/>
+        <item x="24"/>
+        <item x="116"/>
+        <item x="27"/>
+        <item x="115"/>
+        <item x="58"/>
+        <item x="33"/>
+        <item x="18"/>
+        <item x="119"/>
+        <item x="57"/>
+        <item x="12"/>
+        <item x="89"/>
+        <item x="50"/>
+        <item x="106"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="63"/>
+        <item x="68"/>
+        <item x="120"/>
+        <item x="53"/>
+        <item x="60"/>
+        <item x="91"/>
+        <item x="117"/>
+        <item x="22"/>
+        <item x="56"/>
+        <item x="41"/>
+        <item x="72"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="54">
+        <item x="44"/>
+        <item x="40"/>
+        <item x="17"/>
+        <item x="51"/>
+        <item x="39"/>
+        <item x="36"/>
+        <item x="24"/>
+        <item x="7"/>
+        <item x="16"/>
+        <item x="48"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="23"/>
+        <item x="5"/>
+        <item x="34"/>
+        <item x="42"/>
+        <item x="29"/>
+        <item x="33"/>
+        <item x="14"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="50"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item x="35"/>
+        <item x="18"/>
+        <item x="27"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="22"/>
+        <item x="41"/>
+        <item x="52"/>
+        <item x="15"/>
+        <item x="25"/>
+        <item x="6"/>
+        <item x="28"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="38"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="21"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="43"/>
+        <item x="49"/>
+        <item x="45"/>
+        <item x="37"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="54">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Architecture type" fld="10" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F361A1E7-D790-415E-884F-C7B6BB63DE1D}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F361A1E7-D790-415E-884F-C7B6BB63DE1D}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -17360,14 +17356,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Q166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -17442,7 +17438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="30" customHeight="1">
+    <row r="2" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A2" s="5">
         <v>45086.489826365738</v>
       </c>
@@ -17493,7 +17489,7 @@
       </c>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="30" customHeight="1">
+    <row r="3" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A3" s="5">
         <v>45093.479288993054</v>
       </c>
@@ -17596,7 +17592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="30" customHeight="1">
+    <row r="5" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
@@ -17644,7 +17640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="30" customHeight="1">
+    <row r="6" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -17743,7 +17739,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="30" customHeight="1">
+    <row r="8" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A8" s="5">
         <v>45087.949444583333</v>
       </c>
@@ -17796,7 +17792,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="30" customHeight="1">
+    <row r="9" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
@@ -17846,7 +17842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="30" customHeight="1">
+    <row r="10" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
@@ -17896,7 +17892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="30" customHeight="1">
+    <row r="11" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A11" s="5">
         <v>45087.835410081017</v>
       </c>
@@ -17949,7 +17945,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="30" customHeight="1">
+    <row r="12" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A12" s="5">
         <v>45086.552913078704</v>
       </c>
@@ -18000,7 +17996,7 @@
       </c>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17" ht="30" customHeight="1">
+    <row r="13" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A13" s="5">
         <v>45086.886238194449</v>
       </c>
@@ -18053,7 +18049,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="30" customHeight="1">
+    <row r="14" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A14" s="5">
         <v>45086.923802037039</v>
       </c>
@@ -18154,7 +18150,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="30" customHeight="1">
+    <row r="16" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A16" s="5">
         <v>45093.488491516204</v>
       </c>
@@ -18207,7 +18203,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="30" customHeight="1">
+    <row r="17" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
@@ -18257,7 +18253,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="30" customHeight="1">
+    <row r="18" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B18" s="3" t="s">
         <v>36</v>
       </c>
@@ -18307,7 +18303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="30" customHeight="1">
+    <row r="19" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A19" s="5">
         <v>45089.916886377316</v>
       </c>
@@ -18410,7 +18406,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="30" customHeight="1">
+    <row r="21" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A21" s="5">
         <v>45093.469287789354</v>
       </c>
@@ -18463,7 +18459,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="30" customHeight="1">
+    <row r="22" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B22" s="3" t="s">
         <v>36</v>
       </c>
@@ -18513,7 +18509,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="30" customHeight="1">
+    <row r="23" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A23" s="5">
         <v>45086.506025694442</v>
       </c>
@@ -18564,7 +18560,7 @@
       </c>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="30" customHeight="1">
+    <row r="24" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A24" s="5">
         <v>45086.46871011574</v>
       </c>
@@ -18665,7 +18661,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="30" customHeight="1">
+    <row r="26" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
@@ -18715,7 +18711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="30" customHeight="1">
+    <row r="27" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B27" s="3" t="s">
         <v>36</v>
       </c>
@@ -18765,7 +18761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="30" customHeight="1">
+    <row r="28" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
@@ -18813,7 +18809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="30" customHeight="1">
+    <row r="29" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A29" s="5">
         <v>45086.951975185184</v>
       </c>
@@ -18866,7 +18862,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="30" customHeight="1">
+    <row r="30" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A30" s="5">
         <v>45086.960875856486</v>
       </c>
@@ -18919,7 +18915,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="30" customHeight="1">
+    <row r="31" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
@@ -18969,7 +18965,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="30" customHeight="1">
+    <row r="32" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B32" s="3" t="s">
         <v>36</v>
       </c>
@@ -19019,7 +19015,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="30" customHeight="1">
+    <row r="33" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A33" s="5">
         <v>45090.872604363423</v>
       </c>
@@ -19072,7 +19068,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="30" customHeight="1">
+    <row r="34" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A34" s="5">
         <v>45092.472873449078</v>
       </c>
@@ -19125,7 +19121,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="30" customHeight="1">
+    <row r="35" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A35" s="5">
         <v>45090.62814173611</v>
       </c>
@@ -19178,7 +19174,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="30" customHeight="1">
+    <row r="36" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A36" s="5">
         <v>45090.898735254625</v>
       </c>
@@ -19231,7 +19227,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="30" customHeight="1">
+    <row r="37" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A37" s="5">
         <v>45090.637588483798</v>
       </c>
@@ -19284,7 +19280,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="30" customHeight="1">
+    <row r="38" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B38" s="3" t="s">
         <v>36</v>
       </c>
@@ -19334,7 +19330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="30" customHeight="1">
+    <row r="39" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B39" s="3" t="s">
         <v>36</v>
       </c>
@@ -19384,7 +19380,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="30" customHeight="1">
+    <row r="40" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A40" s="5">
         <v>45087.899424189818</v>
       </c>
@@ -19437,7 +19433,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="30" customHeight="1">
+    <row r="41" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A41" s="5">
         <v>45087.924132245374</v>
       </c>
@@ -19490,7 +19486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="30" customHeight="1">
+    <row r="42" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A42" s="5">
         <v>45090.763700625001</v>
       </c>
@@ -19540,7 +19536,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="30" customHeight="1">
+    <row r="43" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B43" s="3" t="s">
         <v>36</v>
       </c>
@@ -19590,7 +19586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="30" customHeight="1">
+    <row r="44" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A44" s="5">
         <v>45093.461388587966</v>
       </c>
@@ -19643,7 +19639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="30" customHeight="1">
+    <row r="45" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B45" s="3" t="s">
         <v>36</v>
       </c>
@@ -19693,7 +19689,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="30" customHeight="1">
+    <row r="46" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A46" s="5">
         <v>45085.979608553243</v>
       </c>
@@ -19744,7 +19740,7 @@
       </c>
       <c r="Q46" s="3"/>
     </row>
-    <row r="47" spans="1:17" ht="30" customHeight="1">
+    <row r="47" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B47" s="3" t="s">
         <v>36</v>
       </c>
@@ -19794,7 +19790,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="30" customHeight="1">
+    <row r="48" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B48" s="3" t="s">
         <v>36</v>
       </c>
@@ -19844,7 +19840,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="30" customHeight="1">
+    <row r="49" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A49" s="5">
         <v>45092.60705298611</v>
       </c>
@@ -19897,7 +19893,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="30" customHeight="1">
+    <row r="50" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B50" s="3" t="s">
         <v>36</v>
       </c>
@@ -19947,7 +19943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="30" customHeight="1">
+    <row r="51" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B51" s="3" t="s">
         <v>36</v>
       </c>
@@ -19997,7 +19993,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="30" customHeight="1">
+    <row r="52" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A52" s="5">
         <v>45092.614134641204</v>
       </c>
@@ -20050,7 +20046,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="30" customHeight="1">
+    <row r="53" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B53" s="3" t="s">
         <v>36</v>
       </c>
@@ -20100,7 +20096,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="30" customHeight="1">
+    <row r="54" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A54" s="5">
         <v>45092.481450983796</v>
       </c>
@@ -20153,7 +20149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="30" customHeight="1">
+    <row r="55" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B55" s="3" t="s">
         <v>36</v>
       </c>
@@ -20203,7 +20199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="30" customHeight="1">
+    <row r="56" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A56" s="5">
         <v>45090.880826458335</v>
       </c>
@@ -20256,7 +20252,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="30" customHeight="1">
+    <row r="57" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A57" s="5">
         <v>45086.578411840281</v>
       </c>
@@ -20307,7 +20303,7 @@
       </c>
       <c r="Q57" s="3"/>
     </row>
-    <row r="58" spans="1:17" ht="30" customHeight="1">
+    <row r="58" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A58" s="5">
         <v>45089.764887696758</v>
       </c>
@@ -20360,7 +20356,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="30" customHeight="1">
+    <row r="59" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B59" s="3" t="s">
         <v>16</v>
       </c>
@@ -20408,7 +20404,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="30" customHeight="1">
+    <row r="60" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A60" s="5">
         <v>45093.497795393516</v>
       </c>
@@ -20461,7 +20457,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="30" customHeight="1">
+    <row r="61" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A61" s="5">
         <v>45086.997997025464</v>
       </c>
@@ -20514,7 +20510,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="30" customHeight="1">
+    <row r="62" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B62" s="3" t="s">
         <v>16</v>
       </c>
@@ -20562,7 +20558,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="30" customHeight="1">
+    <row r="63" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B63" s="3" t="s">
         <v>36</v>
       </c>
@@ -20612,7 +20608,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="30" customHeight="1">
+    <row r="64" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B64" s="3" t="s">
         <v>36</v>
       </c>
@@ -20662,7 +20658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="30" customHeight="1">
+    <row r="65" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A65" s="5">
         <v>45094.869419409719</v>
       </c>
@@ -20768,7 +20764,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="30" customHeight="1">
+    <row r="67" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B67" s="3" t="s">
         <v>36</v>
       </c>
@@ -20818,7 +20814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="30" customHeight="1">
+    <row r="68" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B68" s="3" t="s">
         <v>36</v>
       </c>
@@ -20868,7 +20864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="30" customHeight="1">
+    <row r="69" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A69" s="5">
         <v>45090.61888011574</v>
       </c>
@@ -20974,7 +20970,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="30" customHeight="1">
+    <row r="71" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B71" s="3" t="s">
         <v>36</v>
       </c>
@@ -21024,7 +21020,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="30" customHeight="1">
+    <row r="72" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A72" s="5">
         <v>45085.992094560184</v>
       </c>
@@ -21075,7 +21071,7 @@
       </c>
       <c r="Q72" s="3"/>
     </row>
-    <row r="73" spans="1:17" ht="30" customHeight="1">
+    <row r="73" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A73" s="5">
         <v>45090.856566620372</v>
       </c>
@@ -21128,7 +21124,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="30" customHeight="1">
+    <row r="74" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A74" s="5">
         <v>45090.831294560187</v>
       </c>
@@ -21181,7 +21177,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="30" customHeight="1">
+    <row r="75" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A75" s="5">
         <v>45089.804543136575</v>
       </c>
@@ -21234,7 +21230,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="30" customHeight="1">
+    <row r="76" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A76" s="5">
         <v>45088.000044305554</v>
       </c>
@@ -21287,7 +21283,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="30" customHeight="1">
+    <row r="77" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A77" s="5">
         <v>45094.888143171294</v>
       </c>
@@ -21340,7 +21336,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="30" customHeight="1">
+    <row r="78" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B78" s="3" t="s">
         <v>36</v>
       </c>
@@ -21390,7 +21386,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="30" customHeight="1">
+    <row r="79" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A79" s="5">
         <v>45087.801016099533</v>
       </c>
@@ -21443,7 +21439,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="30" customHeight="1">
+    <row r="80" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B80" s="3" t="s">
         <v>36</v>
       </c>
@@ -21493,7 +21489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="30" customHeight="1">
+    <row r="81" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B81" s="3" t="s">
         <v>36</v>
       </c>
@@ -21543,7 +21539,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="30" customHeight="1">
+    <row r="82" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B82" s="3" t="s">
         <v>36</v>
       </c>
@@ -21593,7 +21589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="30" customHeight="1">
+    <row r="83" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B83" s="3" t="s">
         <v>36</v>
       </c>
@@ -21643,7 +21639,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="30" customHeight="1">
+    <row r="84" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A84" s="5">
         <v>45093.474654930556</v>
       </c>
@@ -21696,7 +21692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="30" customHeight="1">
+    <row r="85" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B85" s="3" t="s">
         <v>36</v>
       </c>
@@ -21746,7 +21742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="30" customHeight="1">
+    <row r="86" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B86" s="3" t="s">
         <v>36</v>
       </c>
@@ -21796,7 +21792,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="30" customHeight="1">
+    <row r="87" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B87" s="3" t="s">
         <v>36</v>
       </c>
@@ -21846,7 +21842,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="30" customHeight="1">
+    <row r="88" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B88" s="3" t="s">
         <v>36</v>
       </c>
@@ -21896,7 +21892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="30" customHeight="1">
+    <row r="89" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A89" s="5">
         <v>45090.887948796299</v>
       </c>
@@ -21949,7 +21945,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="30" customHeight="1">
+    <row r="90" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A90" s="5">
         <v>45092.600498518514</v>
       </c>
@@ -22002,7 +21998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="30" customHeight="1">
+    <row r="91" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A91" s="5">
         <v>45089.56843590278</v>
       </c>
@@ -22055,7 +22051,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="30" customHeight="1">
+    <row r="92" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A92" s="5">
         <v>45094.826998935183</v>
       </c>
@@ -22108,7 +22104,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="30" customHeight="1">
+    <row r="93" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A93" s="5">
         <v>45094.876194282406</v>
       </c>
@@ -22161,7 +22157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="30" customHeight="1">
+    <row r="94" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A94" s="5">
         <v>45085.918544583328</v>
       </c>
@@ -22212,7 +22208,7 @@
       </c>
       <c r="Q94" s="3"/>
     </row>
-    <row r="95" spans="1:17" ht="30" customHeight="1">
+    <row r="95" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A95" s="5">
         <v>45086.477414224537</v>
       </c>
@@ -22263,7 +22259,7 @@
       </c>
       <c r="Q95" s="3"/>
     </row>
-    <row r="96" spans="1:17" ht="30" customHeight="1">
+    <row r="96" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A96" s="5">
         <v>45090.585246863426</v>
       </c>
@@ -22316,7 +22312,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="30" customHeight="1">
+    <row r="97" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B97" s="3" t="s">
         <v>36</v>
       </c>
@@ -22366,7 +22362,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="30" customHeight="1">
+    <row r="98" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B98" s="3" t="s">
         <v>36</v>
       </c>
@@ -22416,7 +22412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="30" customHeight="1">
+    <row r="99" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A99" s="5">
         <v>45094.834484467588</v>
       </c>
@@ -22469,7 +22465,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="30" customHeight="1">
+    <row r="100" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A100" s="5">
         <v>45094.819383275462</v>
       </c>
@@ -22522,7 +22518,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="30" customHeight="1">
+    <row r="101" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B101" s="3" t="s">
         <v>36</v>
       </c>
@@ -22572,7 +22568,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="30" customHeight="1">
+    <row r="102" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A102" s="5">
         <v>45090.979985868056</v>
       </c>
@@ -22625,7 +22621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="30" customHeight="1">
+    <row r="103" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B103" s="3" t="s">
         <v>16</v>
       </c>
@@ -22673,7 +22669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="30" customHeight="1">
+    <row r="104" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A104" s="5">
         <v>45090.603975300925</v>
       </c>
@@ -22723,7 +22719,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="30" customHeight="1">
+    <row r="105" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B105" s="3" t="s">
         <v>36</v>
       </c>
@@ -22773,7 +22769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="30" customHeight="1">
+    <row r="106" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B106" s="3" t="s">
         <v>36</v>
       </c>
@@ -22823,7 +22819,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="30" customHeight="1">
+    <row r="107" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A107" s="5">
         <v>45089.827311608795</v>
       </c>
@@ -22876,7 +22872,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="30" customHeight="1">
+    <row r="108" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A108" s="5">
         <v>45089.847372349541</v>
       </c>
@@ -22929,7 +22925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="30" customHeight="1">
+    <row r="109" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A109" s="5">
         <v>45085.893993622682</v>
       </c>
@@ -22980,7 +22976,7 @@
       </c>
       <c r="Q109" s="3"/>
     </row>
-    <row r="110" spans="1:17" ht="30" customHeight="1">
+    <row r="110" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A110" s="5">
         <v>45089.779145231485</v>
       </c>
@@ -23033,7 +23029,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="30" customHeight="1">
+    <row r="111" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A111" s="5">
         <v>45094.862841956019</v>
       </c>
@@ -23086,7 +23082,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="30" customHeight="1">
+    <row r="112" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A112" s="5">
         <v>45086.106720023148</v>
       </c>
@@ -23137,7 +23133,7 @@
       </c>
       <c r="Q112" s="3"/>
     </row>
-    <row r="113" spans="1:17" ht="30" customHeight="1">
+    <row r="113" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B113" s="3" t="s">
         <v>36</v>
       </c>
@@ -23187,7 +23183,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="30" customHeight="1">
+    <row r="114" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B114" s="3" t="s">
         <v>36</v>
       </c>
@@ -23237,7 +23233,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="30" customHeight="1">
+    <row r="115" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B115" s="3" t="s">
         <v>36</v>
       </c>
@@ -23287,7 +23283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="30" customHeight="1">
+    <row r="116" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A116" s="5">
         <v>45087.746166400466</v>
       </c>
@@ -23340,7 +23336,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="30" customHeight="1">
+    <row r="117" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B117" s="3" t="s">
         <v>36</v>
       </c>
@@ -23390,7 +23386,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="30" customHeight="1">
+    <row r="118" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B118" s="3" t="s">
         <v>36</v>
       </c>
@@ -23440,7 +23436,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="30" customHeight="1">
+    <row r="119" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B119" s="3" t="s">
         <v>36</v>
       </c>
@@ -23540,7 +23536,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="30" customHeight="1">
+    <row r="121" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="A121" s="5">
         <v>45086.970835162036</v>
       </c>
@@ -23593,7 +23589,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="30" customHeight="1">
+    <row r="122" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B122" s="3" t="s">
         <v>36</v>
       </c>
@@ -23643,7 +23639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="30" customHeight="1">
+    <row r="123" spans="1:17" ht="30" hidden="1" customHeight="1">
       <c r="B123" s="3" t="s">
         <v>36</v>
       </c>
@@ -23754,6 +23750,15 @@
     <row r="165" ht="30" customHeight="1"/>
     <row r="166" ht="30" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="A1:Q123" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="Recurrent Variational Autoencoder"/>
+        <filter val="Variational Autoencoders (VAE)"/>
+        <filter val="Vector Quantised-Variational Autoencoder (VQ-VAE)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q167">
     <sortCondition descending="1" ref="L1:L167"/>
   </sortState>
